--- a/data/trans_camb/P27D_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P27D_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +513,9 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +530,49 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz2/Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Mz2/Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2/Mz1</t>
         </is>
@@ -542,6 +584,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +610,21 @@
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -592,6 +652,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -615,6 +690,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -638,6 +728,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -661,6 +766,21 @@
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -688,6 +808,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -711,6 +846,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -734,6 +884,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -757,6 +922,21 @@
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -784,6 +964,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -807,6 +1002,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -830,6 +1040,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -853,6 +1078,21 @@
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -880,6 +1120,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -903,6 +1158,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -926,6 +1196,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -949,6 +1234,21 @@
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -976,6 +1276,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -999,6 +1314,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1022,6 +1352,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1031,9 +1376,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
